--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_669.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_669.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29112-d1146909-Reviews-Rodeway_Inn_Artesia-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Rodeway-Inn-Artesia.h13880.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_669.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_669.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,260 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d1146909-r455746891-Rodeway_Inn_Artesia-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>29112</t>
+  </si>
+  <si>
+    <t>1146909</t>
+  </si>
+  <si>
+    <t>455746891</t>
+  </si>
+  <si>
+    <t>01/29/2017</t>
+  </si>
+  <si>
+    <t>Comfortable &amp; GREAT Customer Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I just checked in, quick and fast with great customer service. my room upstairs was extremely clean and smelled clean. it was comfortable and relaxing. Nothing was dirty and everything was homie and I would love to stay again. </t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d1146909-r398185220-Rodeway_Inn_Artesia-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>398185220</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross bed covers </t>
+  </si>
+  <si>
+    <t>The bathroom and carpet were super gross. Actually, everything was gross. They have those filthy bed covers that aren't washed. Why do hotels still do this??Free parking, good wifi, quiet, good A/C. I'm giving it two stars, rather than one, because we didn't get murdered.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d1146909-r359205465-Rodeway_Inn_Artesia-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>359205465</t>
+  </si>
+  <si>
+    <t>03/27/2016</t>
+  </si>
+  <si>
+    <t>Not too shabby!</t>
+  </si>
+  <si>
+    <t>Most of the reviews I'd read were leaning towards not a good place to stay. I do not listen completely but keep those reviews in mind. The place is clean and in good neighborhood. The place had been renovated but it's wearing out. Carpet has stain, starts to look old and began to get loosen. The walls have patches of skid marks. Some ceiling corners have paint falling off. The wall bathtub tiles are not straight and some grouts are missing. It doesn't smell musty though and can't hear the traffic from the middle of the hotel. It came with a closet but no ironing board and iron. The advertisement mentioned it came with coffee maker and there is none. The bed is comfy but pillows provided were already flat. It came with a flat screen TV, microwave, and mini fridge. The bathroom is standard, a wheelchair can get in it. The water flow and HVAC has great pressure. The front door does not come with double lock but no "mystery" individual seen hanging around nor walking around the block. I will jog at night with no hesitation. Parking is plenty and not in a tight place. The swimming pool is dirty so I didn't allow my kids to swim in it but some other guests did. Member discounts only applies up to two persons. Plenty of places to eat within a walking distance. Two nearby major pharmacies, plenty of...Most of the reviews I'd read were leaning towards not a good place to stay. I do not listen completely but keep those reviews in mind. The place is clean and in good neighborhood. The place had been renovated but it's wearing out. Carpet has stain, starts to look old and began to get loosen. The walls have patches of skid marks. Some ceiling corners have paint falling off. The wall bathtub tiles are not straight and some grouts are missing. It doesn't smell musty though and can't hear the traffic from the middle of the hotel. It came with a closet but no ironing board and iron. The advertisement mentioned it came with coffee maker and there is none. The bed is comfy but pillows provided were already flat. It came with a flat screen TV, microwave, and mini fridge. The bathroom is standard, a wheelchair can get in it. The water flow and HVAC has great pressure. The front door does not come with double lock but no "mystery" individual seen hanging around nor walking around the block. I will jog at night with no hesitation. Parking is plenty and not in a tight place. The swimming pool is dirty so I didn't allow my kids to swim in it but some other guests did. Member discounts only applies up to two persons. Plenty of places to eat within a walking distance. Two nearby major pharmacies, plenty of restaurants to choose from, and close to a freeway.  MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Most of the reviews I'd read were leaning towards not a good place to stay. I do not listen completely but keep those reviews in mind. The place is clean and in good neighborhood. The place had been renovated but it's wearing out. Carpet has stain, starts to look old and began to get loosen. The walls have patches of skid marks. Some ceiling corners have paint falling off. The wall bathtub tiles are not straight and some grouts are missing. It doesn't smell musty though and can't hear the traffic from the middle of the hotel. It came with a closet but no ironing board and iron. The advertisement mentioned it came with coffee maker and there is none. The bed is comfy but pillows provided were already flat. It came with a flat screen TV, microwave, and mini fridge. The bathroom is standard, a wheelchair can get in it. The water flow and HVAC has great pressure. The front door does not come with double lock but no "mystery" individual seen hanging around nor walking around the block. I will jog at night with no hesitation. Parking is plenty and not in a tight place. The swimming pool is dirty so I didn't allow my kids to swim in it but some other guests did. Member discounts only applies up to two persons. Plenty of places to eat within a walking distance. Two nearby major pharmacies, plenty of...Most of the reviews I'd read were leaning towards not a good place to stay. I do not listen completely but keep those reviews in mind. The place is clean and in good neighborhood. The place had been renovated but it's wearing out. Carpet has stain, starts to look old and began to get loosen. The walls have patches of skid marks. Some ceiling corners have paint falling off. The wall bathtub tiles are not straight and some grouts are missing. It doesn't smell musty though and can't hear the traffic from the middle of the hotel. It came with a closet but no ironing board and iron. The advertisement mentioned it came with coffee maker and there is none. The bed is comfy but pillows provided were already flat. It came with a flat screen TV, microwave, and mini fridge. The bathroom is standard, a wheelchair can get in it. The water flow and HVAC has great pressure. The front door does not come with double lock but no "mystery" individual seen hanging around nor walking around the block. I will jog at night with no hesitation. Parking is plenty and not in a tight place. The swimming pool is dirty so I didn't allow my kids to swim in it but some other guests did. Member discounts only applies up to two persons. Plenty of places to eat within a walking distance. Two nearby major pharmacies, plenty of restaurants to choose from, and close to a freeway.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d1146909-r269072381-Rodeway_Inn_Artesia-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>269072381</t>
+  </si>
+  <si>
+    <t>04/30/2015</t>
+  </si>
+  <si>
+    <t>Banging water pipes</t>
+  </si>
+  <si>
+    <t>Looks are deceiving.  Everything looked nice frim afar.  We requested down stairs nonsmoking on our reservation however,  none available so we opted for the handicapped since we did have disabled persons in our party. Ammenities said coffee pots in room,  no coffee pot, no closet, no suitcase stand, no place to hang clothes. The freeway noise I can deal with,  the pipes banging every few seconds ALL NIGHT LONG,  a different story. Staff was nice enough. Lodging sucked!!!!</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d1146909-r254008651-Rodeway_Inn_Artesia-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>254008651</t>
+  </si>
+  <si>
+    <t>02/13/2015</t>
+  </si>
+  <si>
+    <t>last minute   room reservation</t>
+  </si>
+  <si>
+    <t>I rented  this room at the last minute  on booking . Com I asked  for  a   room downstairs  and we got it the staff was great and we decided  to  stay  another  day the area  was very  nice  a lot  of  food  choices  was  a   plus</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d1146909-r242040843-Rodeway_Inn_Artesia-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>242040843</t>
+  </si>
+  <si>
+    <t>11/29/2014</t>
+  </si>
+  <si>
+    <t>Not the best stay</t>
+  </si>
+  <si>
+    <t>This rodeway inn really needs some serious updating and maintenence done to it..especially to the guest rooms. The window shutters they thought would look nice are lame and don't block out enough light. The wifi is slow and half the time doesn't let you log on. There was no coffee maker in our room. The mini fridge was noisy and ran consantly. Bathrooms need to be updated all around.This hotel does get noisy during certain times of the day especially in the early morning.Only things that were nice was the new high def tv and the bed wasn't bad they just need new pillows.Not a good hotel to bring kids to.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>This rodeway inn really needs some serious updating and maintenence done to it..especially to the guest rooms. The window shutters they thought would look nice are lame and don't block out enough light. The wifi is slow and half the time doesn't let you log on. There was no coffee maker in our room. The mini fridge was noisy and ran consantly. Bathrooms need to be updated all around.This hotel does get noisy during certain times of the day especially in the early morning.Only things that were nice was the new high def tv and the bed wasn't bad they just need new pillows.Not a good hotel to bring kids to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d1146909-r188972400-Rodeway_Inn_Artesia-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>188972400</t>
+  </si>
+  <si>
+    <t>12/29/2013</t>
+  </si>
+  <si>
+    <t>Good for Price and convenient for Disneyland</t>
+  </si>
+  <si>
+    <t>We stayed here for 5 nights and it was good. This hotel is good but traffic was really bad when we came from North(SFO). It took 1.25 hrs to get through LA traffic just for 4 miles.Room was clean and specious. The room furniture was little outdated but bed was comfortable. Breakfast was a disappoint. Breakfast was just donuts, cereals, milk and Orange Juice. They only offer a soap bar and shampoo but not bad for the price you pay. They have plenty of parking space and staff was friendly and helpful. There is a really good Indian restaurant (Woodland) right across the street. There is a grocery store and CVS/Walgreen also in case if you forgot something to bring.In all nice hotel....MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>We stayed here for 5 nights and it was good. This hotel is good but traffic was really bad when we came from North(SFO). It took 1.25 hrs to get through LA traffic just for 4 miles.Room was clean and specious. The room furniture was little outdated but bed was comfortable. Breakfast was a disappoint. Breakfast was just donuts, cereals, milk and Orange Juice. They only offer a soap bar and shampoo but not bad for the price you pay. They have plenty of parking space and staff was friendly and helpful. There is a really good Indian restaurant (Woodland) right across the street. There is a grocery store and CVS/Walgreen also in case if you forgot something to bring.In all nice hotel....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d1146909-r185916229-Rodeway_Inn_Artesia-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>185916229</t>
+  </si>
+  <si>
+    <t>11/25/2013</t>
+  </si>
+  <si>
+    <t>OK place</t>
+  </si>
+  <si>
+    <t>I was going to spend a few days with my daughter who lives in Cerritos and this hotel was the closest to her home. The place is OK but it needs some TLC from the owners. It looks too rundown. The room was clean but the security lock didn't work. The water from the faucet had a very bad taste; so, I ended using bottled water to brush my teeth. My room was in the first floor and I had a hard time with the noises coming from the room on top of my room. The room furniture looks outdated though the bed was comfortable. The TV set is the only modern thing in the room. It has a small fridge which is very convenient. The breakfast is just donuts, a couple of cereals, milk and an imitation OJ but the rate allows you to go somewhere else for breakfast. They have plenty of parking space. The staff in general was friendly and helpful. I would consider it in the future just if I get a low rate. I got what I paid for. MoreShow less</t>
+  </si>
+  <si>
+    <t>I was going to spend a few days with my daughter who lives in Cerritos and this hotel was the closest to her home. The place is OK but it needs some TLC from the owners. It looks too rundown. The room was clean but the security lock didn't work. The water from the faucet had a very bad taste; so, I ended using bottled water to brush my teeth. My room was in the first floor and I had a hard time with the noises coming from the room on top of my room. The room furniture looks outdated though the bed was comfortable. The TV set is the only modern thing in the room. It has a small fridge which is very convenient. The breakfast is just donuts, a couple of cereals, milk and an imitation OJ but the rate allows you to go somewhere else for breakfast. They have plenty of parking space. The staff in general was friendly and helpful. I would consider it in the future just if I get a low rate. I got what I paid for. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d1146909-r170128168-Rodeway_Inn_Artesia-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>170128168</t>
+  </si>
+  <si>
+    <t>07/31/2013</t>
+  </si>
+  <si>
+    <t>Almost perfect stay</t>
+  </si>
+  <si>
+    <t>My husband and I booked this room at the last minute to add 2 days to our Disneyland vacation. Our other hotel was way over priced for the 2 nights I added so I figured I would try this place out. 2 midweek nights for $129.
+1st off we checked in at 10p.m. It took less than 1 minute to check in and the clerk was very friendly. We received room 210. Parking was great. 
+When entering the room it was warm but the air conditioning worked great and the room was cooled down within 5 minutes. Everything looked clean for the moat part but I take Lysol wipes with me everywhere to wipe everything down. It did take more than a few wipes for me to be happy but I have totally been in worse places.
+The bed was very comfortable. The t.v. worked great. The WiFi could have been better and you can only link 1 device with the code provided. The shower was great, water was warm and pressure was good. They only offer a soap bar and shampoo so bring other stuff if you need it.
+The breakfast was the only disappointment of the stay. 2 cereals, 1type of milk, 3 donuts and regular coffee and I think orange juice. I just had weight loss surgery a month before appt I could not eat any other the offerings. My husband had a donut, he said it...My husband and I booked this room at the last minute to add 2 days to our Disneyland vacation. Our other hotel was way over priced for the 2 nights I added so I figured I would try this place out. 2 midweek nights for $129.1st off we checked in at 10p.m. It took less than 1 minute to check in and the clerk was very friendly. We received room 210. Parking was great. When entering the room it was warm but the air conditioning worked great and the room was cooled down within 5 minutes. Everything looked clean for the moat part but I take Lysol wipes with me everywhere to wipe everything down. It did take more than a few wipes for me to be happy but I have totally been in worse places.The bed was very comfortable. The t.v. worked great. The WiFi could have been better and you can only link 1 device with the code provided. The shower was great, water was warm and pressure was good. They only offer a soap bar and shampoo so bring other stuff if you need it.The breakfast was the only disappointment of the stay. 2 cereals, 1type of milk, 3 donuts and regular coffee and I think orange juice. I just had weight loss surgery a month before appt I could not eat any other the offerings. My husband had a donut, he said it was good. For the price you save staying here you canc afford breakfast somewhere else.The pool is very small but I am sure it is fine.The drive to Disneyland was super easy and quick, even in morning traffic. There is a carpool lane on the 91 East that loop directly on to 5 South carpool lane. Then there is a carpool exit for Disneyland. It took us about 10 minutes. The location was quite and in a nice area. Plenty of stuff near by. So basically if you want a good deal and you are not the picky type youvwill he fine here. Thing to remember is this is not a high end hotel, it is a budget  motel. I was happy enough here that I am cancelling our next stay at another place and booking it here.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I booked this room at the last minute to add 2 days to our Disneyland vacation. Our other hotel was way over priced for the 2 nights I added so I figured I would try this place out. 2 midweek nights for $129.
+1st off we checked in at 10p.m. It took less than 1 minute to check in and the clerk was very friendly. We received room 210. Parking was great. 
+When entering the room it was warm but the air conditioning worked great and the room was cooled down within 5 minutes. Everything looked clean for the moat part but I take Lysol wipes with me everywhere to wipe everything down. It did take more than a few wipes for me to be happy but I have totally been in worse places.
+The bed was very comfortable. The t.v. worked great. The WiFi could have been better and you can only link 1 device with the code provided. The shower was great, water was warm and pressure was good. They only offer a soap bar and shampoo so bring other stuff if you need it.
+The breakfast was the only disappointment of the stay. 2 cereals, 1type of milk, 3 donuts and regular coffee and I think orange juice. I just had weight loss surgery a month before appt I could not eat any other the offerings. My husband had a donut, he said it...My husband and I booked this room at the last minute to add 2 days to our Disneyland vacation. Our other hotel was way over priced for the 2 nights I added so I figured I would try this place out. 2 midweek nights for $129.1st off we checked in at 10p.m. It took less than 1 minute to check in and the clerk was very friendly. We received room 210. Parking was great. When entering the room it was warm but the air conditioning worked great and the room was cooled down within 5 minutes. Everything looked clean for the moat part but I take Lysol wipes with me everywhere to wipe everything down. It did take more than a few wipes for me to be happy but I have totally been in worse places.The bed was very comfortable. The t.v. worked great. The WiFi could have been better and you can only link 1 device with the code provided. The shower was great, water was warm and pressure was good. They only offer a soap bar and shampoo so bring other stuff if you need it.The breakfast was the only disappointment of the stay. 2 cereals, 1type of milk, 3 donuts and regular coffee and I think orange juice. I just had weight loss surgery a month before appt I could not eat any other the offerings. My husband had a donut, he said it was good. For the price you save staying here you canc afford breakfast somewhere else.The pool is very small but I am sure it is fine.The drive to Disneyland was super easy and quick, even in morning traffic. There is a carpool lane on the 91 East that loop directly on to 5 South carpool lane. Then there is a carpool exit for Disneyland. It took us about 10 minutes. The location was quite and in a nice area. Plenty of stuff near by. So basically if you want a good deal and you are not the picky type youvwill he fine here. Thing to remember is this is not a high end hotel, it is a budget  motel. I was happy enough here that I am cancelling our next stay at another place and booking it here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d1146909-r132915405-Rodeway_Inn_Artesia-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>132915405</t>
+  </si>
+  <si>
+    <t>06/27/2012</t>
+  </si>
+  <si>
+    <t>Good place to rest</t>
+  </si>
+  <si>
+    <t>We stayed here for a night and were expecting a old, dirty hotel.  I was pleasantly surprised.  The room was very nice and clean, looked like a brand new hotel.  The beds are comfy, tv with a lot of channels.  It's not too far away if you want to drive to Disneyland, even closer to Knott's berry farm.  only reason I didn't give it a 5 was because the refrigerator wasn't working, nor was the ice machine, but overall you get good value for the price</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d1146909-r131863775-Rodeway_Inn_Artesia-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>131863775</t>
+  </si>
+  <si>
+    <t>06/12/2012</t>
+  </si>
+  <si>
+    <t>Good Value Good People</t>
+  </si>
+  <si>
+    <t>Close to LA downtown, disneyland at the great price with amazing service !! Love you guys, keep it up ! will visit you very soon :)))</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d1146909-r59948736-Rodeway_Inn_Artesia-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>59948736</t>
+  </si>
+  <si>
+    <t>03/30/2010</t>
+  </si>
+  <si>
+    <t>Avoid this place!!!</t>
+  </si>
+  <si>
+    <t>We chose this b/c the advertisement specifically said 2 QUEEN BEDS. They were clearly NOT Queen size. (Which the front desk clerk insisted they were) The room smelled awful, the bathroom door handle was broken, the bthrm door jam was broken off revealing crumbling drywall. The headboard was discusting, like it has never been clean, I put a bag on the tv stand and there was dust and goopy stuff stuck to it, and you could barely get into the parking lot due to it being taped off for the whole wknd for repairs. Not Happy at all.  The only good thing is at check out there was a different front desk clerk and he was very pleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>We chose this b/c the advertisement specifically said 2 QUEEN BEDS. They were clearly NOT Queen size. (Which the front desk clerk insisted they were) The room smelled awful, the bathroom door handle was broken, the bthrm door jam was broken off revealing crumbling drywall. The headboard was discusting, like it has never been clean, I put a bag on the tv stand and there was dust and goopy stuff stuck to it, and you could barely get into the parking lot due to it being taped off for the whole wknd for repairs. Not Happy at all.  The only good thing is at check out there was a different front desk clerk and he was very pleasant.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +902,730 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7119</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7119</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7119</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7119</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7119</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7119</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7119</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7119</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7119</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7119</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7119</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7119</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_669.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_669.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>diane g</t>
+  </si>
+  <si>
     <t>07/10/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>expat_mbk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d1146909-r398185220-Rodeway_Inn_Artesia-Artesia_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Travelers330</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d1146909-r359205465-Rodeway_Inn_Artesia-Artesia_California.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>Most of the reviews I'd read were leaning towards not a good place to stay. I do not listen completely but keep those reviews in mind. The place is clean and in good neighborhood. The place had been renovated but it's wearing out. Carpet has stain, starts to look old and began to get loosen. The walls have patches of skid marks. Some ceiling corners have paint falling off. The wall bathtub tiles are not straight and some grouts are missing. It doesn't smell musty though and can't hear the traffic from the middle of the hotel. It came with a closet but no ironing board and iron. The advertisement mentioned it came with coffee maker and there is none. The bed is comfy but pillows provided were already flat. It came with a flat screen TV, microwave, and mini fridge. The bathroom is standard, a wheelchair can get in it. The water flow and HVAC has great pressure. The front door does not come with double lock but no "mystery" individual seen hanging around nor walking around the block. I will jog at night with no hesitation. Parking is plenty and not in a tight place. The swimming pool is dirty so I didn't allow my kids to swim in it but some other guests did. Member discounts only applies up to two persons. Plenty of places to eat within a walking distance. Two nearby major pharmacies, plenty of...Most of the reviews I'd read were leaning towards not a good place to stay. I do not listen completely but keep those reviews in mind. The place is clean and in good neighborhood. The place had been renovated but it's wearing out. Carpet has stain, starts to look old and began to get loosen. The walls have patches of skid marks. Some ceiling corners have paint falling off. The wall bathtub tiles are not straight and some grouts are missing. It doesn't smell musty though and can't hear the traffic from the middle of the hotel. It came with a closet but no ironing board and iron. The advertisement mentioned it came with coffee maker and there is none. The bed is comfy but pillows provided were already flat. It came with a flat screen TV, microwave, and mini fridge. The bathroom is standard, a wheelchair can get in it. The water flow and HVAC has great pressure. The front door does not come with double lock but no "mystery" individual seen hanging around nor walking around the block. I will jog at night with no hesitation. Parking is plenty and not in a tight place. The swimming pool is dirty so I didn't allow my kids to swim in it but some other guests did. Member discounts only applies up to two persons. Plenty of places to eat within a walking distance. Two nearby major pharmacies, plenty of restaurants to choose from, and close to a freeway.  More</t>
   </si>
   <si>
+    <t>Jane H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d1146909-r269072381-Rodeway_Inn_Artesia-Artesia_California.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>flintstone45</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d1146909-r254008651-Rodeway_Inn_Artesia-Artesia_California.html</t>
   </si>
   <si>
@@ -261,6 +276,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>HotelGuruGirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d1146909-r242040843-Rodeway_Inn_Artesia-Artesia_California.html</t>
   </si>
   <si>
@@ -285,6 +303,9 @@
     <t>This rodeway inn really needs some serious updating and maintenence done to it..especially to the guest rooms. The window shutters they thought would look nice are lame and don't block out enough light. The wifi is slow and half the time doesn't let you log on. There was no coffee maker in our room. The mini fridge was noisy and ran consantly. Bathrooms need to be updated all around.This hotel does get noisy during certain times of the day especially in the early morning.Only things that were nice was the new high def tv and the bed wasn't bad they just need new pillows.Not a good hotel to bring kids to.More</t>
   </si>
   <si>
+    <t>Bhavesh C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d1146909-r188972400-Rodeway_Inn_Artesia-Artesia_California.html</t>
   </si>
   <si>
@@ -306,6 +327,9 @@
     <t>We stayed here for 5 nights and it was good. This hotel is good but traffic was really bad when we came from North(SFO). It took 1.25 hrs to get through LA traffic just for 4 miles.Room was clean and specious. The room furniture was little outdated but bed was comfortable. Breakfast was a disappoint. Breakfast was just donuts, cereals, milk and Orange Juice. They only offer a soap bar and shampoo but not bad for the price you pay. They have plenty of parking space and staff was friendly and helpful. There is a really good Indian restaurant (Woodland) right across the street. There is a grocery store and CVS/Walgreen also in case if you forgot something to bring.In all nice hotel....More</t>
   </si>
   <si>
+    <t>golflover26</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d1146909-r185916229-Rodeway_Inn_Artesia-Artesia_California.html</t>
   </si>
   <si>
@@ -322,6 +346,9 @@
   </si>
   <si>
     <t>I was going to spend a few days with my daughter who lives in Cerritos and this hotel was the closest to her home. The place is OK but it needs some TLC from the owners. It looks too rundown. The room was clean but the security lock didn't work. The water from the faucet had a very bad taste; so, I ended using bottled water to brush my teeth. My room was in the first floor and I had a hard time with the noises coming from the room on top of my room. The room furniture looks outdated though the bed was comfortable. The TV set is the only modern thing in the room. It has a small fridge which is very convenient. The breakfast is just donuts, a couple of cereals, milk and an imitation OJ but the rate allows you to go somewhere else for breakfast. They have plenty of parking space. The staff in general was friendly and helpful. I would consider it in the future just if I get a low rate. I got what I paid for. More</t>
+  </si>
+  <si>
+    <t>vacationsalot</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d1146909-r170128168-Rodeway_Inn_Artesia-Artesia_California.html</t>
@@ -350,6 +377,9 @@
 The breakfast was the only disappointment of the stay. 2 cereals, 1type of milk, 3 donuts and regular coffee and I think orange juice. I just had weight loss surgery a month before appt I could not eat any other the offerings. My husband had a donut, he said it...My husband and I booked this room at the last minute to add 2 days to our Disneyland vacation. Our other hotel was way over priced for the 2 nights I added so I figured I would try this place out. 2 midweek nights for $129.1st off we checked in at 10p.m. It took less than 1 minute to check in and the clerk was very friendly. We received room 210. Parking was great. When entering the room it was warm but the air conditioning worked great and the room was cooled down within 5 minutes. Everything looked clean for the moat part but I take Lysol wipes with me everywhere to wipe everything down. It did take more than a few wipes for me to be happy but I have totally been in worse places.The bed was very comfortable. The t.v. worked great. The WiFi could have been better and you can only link 1 device with the code provided. The shower was great, water was warm and pressure was good. They only offer a soap bar and shampoo so bring other stuff if you need it.The breakfast was the only disappointment of the stay. 2 cereals, 1type of milk, 3 donuts and regular coffee and I think orange juice. I just had weight loss surgery a month before appt I could not eat any other the offerings. My husband had a donut, he said it was good. For the price you save staying here you canc afford breakfast somewhere else.The pool is very small but I am sure it is fine.The drive to Disneyland was super easy and quick, even in morning traffic. There is a carpool lane on the 91 East that loop directly on to 5 South carpool lane. Then there is a carpool exit for Disneyland. It took us about 10 minutes. The location was quite and in a nice area. Plenty of stuff near by. So basically if you want a good deal and you are not the picky type youvwill he fine here. Thing to remember is this is not a high end hotel, it is a budget  motel. I was happy enough here that I am cancelling our next stay at another place and booking it here.More</t>
   </si>
   <si>
+    <t>MartinG408</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d1146909-r132915405-Rodeway_Inn_Artesia-Artesia_California.html</t>
   </si>
   <si>
@@ -365,6 +395,9 @@
     <t>We stayed here for a night and were expecting a old, dirty hotel.  I was pleasantly surprised.  The room was very nice and clean, looked like a brand new hotel.  The beds are comfy, tv with a lot of channels.  It's not too far away if you want to drive to Disneyland, even closer to Knott's berry farm.  only reason I didn't give it a 5 was because the refrigerator wasn't working, nor was the ice machine, but overall you get good value for the price</t>
   </si>
   <si>
+    <t>Abel J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d1146909-r131863775-Rodeway_Inn_Artesia-Artesia_California.html</t>
   </si>
   <si>
@@ -381,6 +414,9 @@
   </si>
   <si>
     <t>June 2012</t>
+  </si>
+  <si>
+    <t>mama45</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29112-d1146909-r59948736-Rodeway_Inn_Artesia-Artesia_California.html</t>
@@ -906,43 +942,47 @@
       <c r="A2" t="n">
         <v>7119</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -956,50 +996,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>7119</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1013,50 +1057,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>7119</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1070,50 +1118,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>7119</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1127,50 +1179,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>7119</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -1188,50 +1244,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>7119</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1245,50 +1305,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7119</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -1310,41 +1374,45 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>7119</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
@@ -1363,41 +1431,45 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>7119</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
@@ -1426,41 +1498,45 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>7119</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
@@ -1489,50 +1565,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>7119</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -1556,50 +1636,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>7119</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -1623,7 +1707,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
